--- a/stock_predictor_ai/data/company_sentiment_ready/OTIS_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/OTIS_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1320"/>
+  <dimension ref="A1:B1381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11001,6 +11001,494 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1321">
+      <c r="A1321" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
